--- a/Excel_Templates/Test_Suite_Template.xlsx
+++ b/Excel_Templates/Test_Suite_Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19200"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19200" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Project_Name</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>Headless</t>
+  </si>
+  <si>
+    <t>Chrome-Remote</t>
+  </si>
+  <si>
+    <t>Firefox-Remote</t>
   </si>
 </sst>
 </file>
@@ -625,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -702,7 +708,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Lists!$A$2:$A$14</xm:f>
+            <xm:f>Lists!$A$2:$A$16</xm:f>
           </x14:formula1>
           <xm:sqref>C8:C9</xm:sqref>
         </x14:dataValidation>
@@ -714,15 +720,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A6"/>
+  <dimension ref="A2:A8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -732,21 +738,31 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Excel_Templates/Test_Suite_Template.xlsx
+++ b/Excel_Templates/Test_Suite_Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19200" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -631,7 +631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -722,7 +722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>

--- a/Excel_Templates/Test_Suite_Template.xlsx
+++ b/Excel_Templates/Test_Suite_Template.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Project_Name</t>
   </si>
@@ -72,13 +72,16 @@
     <t>Safari</t>
   </si>
   <si>
-    <t>Headless</t>
-  </si>
-  <si>
     <t>Chrome-Remote</t>
   </si>
   <si>
     <t>Firefox-Remote</t>
+  </si>
+  <si>
+    <t>Chrome-Headless</t>
+  </si>
+  <si>
+    <t>FireFox-Headless</t>
   </si>
 </sst>
 </file>
@@ -720,10 +723,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A8"/>
+  <dimension ref="A2:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -738,7 +741,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -748,7 +751,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -763,7 +766,12 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -772,12 +780,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008EB026D4FC24C9499CD13E6F13776440" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bde19c557e1184fdfae2ef1e0c5f05ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -891,16 +908,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9AA4BDC-0A1E-477B-A688-3C63CC63036F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78225F9A-721A-4D59-A0A0-AA4F79F57621}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -915,7 +931,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC8903CE-274A-40A9-9572-7A8439889D59}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -929,12 +945,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9AA4BDC-0A1E-477B-A688-3C63CC63036F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Excel_Templates/Test_Suite_Template.xlsx
+++ b/Excel_Templates/Test_Suite_Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19200"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19200" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
     <t>Chrome-Headless</t>
   </si>
   <si>
-    <t>FireFox-Headless</t>
+    <t>Firefox-Headless</t>
   </si>
 </sst>
 </file>
@@ -634,7 +634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -725,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Excel_Templates/Test_Suite_Template.xlsx
+++ b/Excel_Templates/Test_Suite_Template.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Project_Name</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>SuiteID</t>
   </si>
 </sst>
 </file>
@@ -316,6 +319,22 @@
   </cellStyles>
   <dxfs count="35">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -471,21 +490,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -851,30 +855,32 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A7:D28" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="16">
   <autoFilter ref="A7:D28"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Test_ID" dataDxfId="15"/>
-    <tableColumn id="2" name="Test_Specification" dataDxfId="14"/>
-    <tableColumn id="3" name="Browser" dataDxfId="13"/>
-    <tableColumn id="4" name="Environment" dataDxfId="12"/>
+    <tableColumn id="1" name="Test_ID" dataDxfId="0">
+      <calculatedColumnFormula>ROW(1:8) &amp; "_SuiteID"</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="Test_Specification" dataDxfId="15"/>
+    <tableColumn id="3" name="Browser" dataDxfId="14"/>
+    <tableColumn id="4" name="Environment" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:A7" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:A7" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <autoFilter ref="A1:A7"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Browser Types" dataDxfId="6"/>
+    <tableColumn id="1" name="Browser Types" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="D1:D5" totalsRowShown="0" headerRowDxfId="5" dataDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="2" totalsRowBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="D1:D5" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
   <autoFilter ref="D1:D5"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Environment Type" dataDxfId="0"/>
+    <tableColumn id="1" name="Environment Type" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1146,7 +1152,8 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1185,7 +1192,9 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
+      <c r="A5" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
     </row>
@@ -1204,127 +1213,190 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
+      <c r="A8" s="7" t="str">
+        <f t="shared" ref="A8:A28" si="0">ROW(1:8) &amp; "_SuiteID"</f>
+        <v>1_SuiteID</v>
+      </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
+      <c r="A9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>2_SuiteID</v>
+      </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
+      <c r="A10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>3_SuiteID</v>
+      </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
+      <c r="A11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>4_SuiteID</v>
+      </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
+      <c r="A12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>5_SuiteID</v>
+      </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
+      <c r="A13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>6_SuiteID</v>
+      </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
+      <c r="A14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>7_SuiteID</v>
+      </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
+      <c r="A15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>8_SuiteID</v>
+      </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
+      <c r="A16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>9_SuiteID</v>
+      </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
+      <c r="A17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>10_SuiteID</v>
+      </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
+      <c r="A18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>11_SuiteID</v>
+      </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
+      <c r="A19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>12_SuiteID</v>
+      </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
+      <c r="A20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>13_SuiteID</v>
+      </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
+      <c r="A21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>14_SuiteID</v>
+      </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
+      <c r="A22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>15_SuiteID</v>
+      </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
+      <c r="A23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>16_SuiteID</v>
+      </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
+      <c r="A24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>17_SuiteID</v>
+      </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
+      <c r="A25" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>18_SuiteID</v>
+      </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
+      <c r="A26" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>19_SuiteID</v>
+      </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
+      <c r="A27" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>20_SuiteID</v>
+      </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="10"/>
+      <c r="A28" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>21_SuiteID</v>
+      </c>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="D28" s="12"/>
